--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3103215.4201364</v>
+        <v>3098910.29713933</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328603.389020026</v>
+        <v>8328603.389020027</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
-        <v>88.09081815943081</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>172.018816440332</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>164.6104043214403</v>
+        <v>142.0774699664604</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>155.5968752601835</v>
       </c>
       <c r="G5" t="n">
-        <v>337.0215152709371</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425912</v>
+        <v>23.94240680425858</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>102.3007738059932</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>53.666876865119</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074797</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>83.08179079121695</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>46.17063318532924</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304051</v>
+        <v>30.24193919304022</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589123</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>121.3173682462355</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.34253126155826</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>193.8637207611002</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.085774025512567</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.47349431240879</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5.421623586788822</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>87.26519496153743</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.8176706595564</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.3494546525241</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>217.8886059122772</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,10 +2608,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>141.6930519056953</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>44.75138076689361</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>16.09765778288659</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>158.2081142387089</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,10 +3319,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>72.60410776434674</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>61.16269384155317</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3948,25 +3948,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>178.279871084294</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>165.0963079021247</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>71.39698738222857</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262255</v>
+        <v>338.1060369005846</v>
       </c>
       <c r="C2" t="n">
-        <v>672.2420264262255</v>
+        <v>338.1060369005846</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097407</v>
+        <v>338.1060369005846</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097407</v>
+        <v>338.1060369005846</v>
       </c>
       <c r="F2" t="n">
-        <v>293.4024563932559</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="G2" t="n">
-        <v>103.9826713767711</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262255</v>
+        <v>338.1060369005846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.9896429540876</v>
+        <v>248.9546307030099</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296054</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296054</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296054</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296054</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296054</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323101</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.9896429540876</v>
+        <v>417.1699677230779</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.3134271088</v>
+        <v>1317.118726476541</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.3134271088</v>
+        <v>948.1562095361292</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.3134271088</v>
+        <v>589.8905109293787</v>
       </c>
       <c r="E5" t="n">
-        <v>1097.3134271088</v>
+        <v>204.1022583311345</v>
       </c>
       <c r="F5" t="n">
-        <v>686.3275223191927</v>
+        <v>46.93369746226229</v>
       </c>
       <c r="G5" t="n">
-        <v>345.9017493182461</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017228</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746982</v>
+        <v>277.9807166746999</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030767</v>
+        <v>521.2049416030796</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709185</v>
+        <v>823.5081935709229</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582758</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079247</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.822248332767</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837894</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301001</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437436</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.3134271088</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.3134271088</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.3134271088</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.3134271088</v>
+        <v>1703.718566540663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1097.3134271088</v>
+        <v>1703.718566540663</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>855.0084616541699</v>
+        <v>607.8141681877999</v>
       </c>
       <c r="C6" t="n">
-        <v>680.5554323730429</v>
+        <v>433.3611389066729</v>
       </c>
       <c r="D6" t="n">
-        <v>531.6210227117916</v>
+        <v>284.4267292454216</v>
       </c>
       <c r="E6" t="n">
-        <v>372.3835677063361</v>
+        <v>181.0926142898729</v>
       </c>
       <c r="F6" t="n">
-        <v>225.8490097332211</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="G6" t="n">
-        <v>88.76702284718093</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787533</v>
+        <v>61.66788464787594</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806063</v>
+        <v>186.1577239806076</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189978</v>
+        <v>399.8722171190002</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223501</v>
+        <v>668.6238185223535</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035248</v>
+        <v>958.8971200352526</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228324</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639515</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699369</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419124</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419124</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="V6" t="n">
-        <v>1062.768760419124</v>
+        <v>1445.878660906556</v>
       </c>
       <c r="W6" t="n">
-        <v>1062.768760419124</v>
+        <v>1191.641304178355</v>
       </c>
       <c r="X6" t="n">
-        <v>1062.768760419124</v>
+        <v>983.7898039728218</v>
       </c>
       <c r="Y6" t="n">
-        <v>855.0084616541699</v>
+        <v>776.0295052078679</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.0264704422703</v>
+        <v>111.7424728605654</v>
       </c>
       <c r="C7" t="n">
-        <v>149.0264704422703</v>
+        <v>111.7424728605654</v>
       </c>
       <c r="D7" t="n">
-        <v>65.10546964306123</v>
+        <v>111.7424728605654</v>
       </c>
       <c r="E7" t="n">
-        <v>65.10546964306123</v>
+        <v>111.7424728605654</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306123</v>
+        <v>111.7424728605654</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306113</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306113</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306123</v>
+        <v>65.10546964306113</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.55805631675787</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574691</v>
+        <v>64.24066662574754</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584115</v>
+        <v>132.1299861584127</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347971</v>
+        <v>206.968037834799</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195366</v>
+        <v>287.8841338195391</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934716</v>
+        <v>342.3101561934747</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858004</v>
+        <v>369.8190495858038</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858004</v>
+        <v>332.5350520040955</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.0264704422703</v>
+        <v>111.7424728605654</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1625.136916162949</v>
+        <v>588.888538792208</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.174399222538</v>
+        <v>588.888538792208</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.174399222538</v>
+        <v>588.888538792208</v>
       </c>
       <c r="E8" t="n">
-        <v>870.3861466242934</v>
+        <v>588.888538792208</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346859</v>
+        <v>581.9430380430045</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809311</v>
+        <v>165.9119927464118</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642786</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642786</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>2011.736756227071</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>2011.736756227071</v>
+        <v>1705.262284299214</v>
       </c>
       <c r="W8" t="n">
-        <v>2011.736756227071</v>
+        <v>1352.4936290291</v>
       </c>
       <c r="X8" t="n">
-        <v>2011.736756227071</v>
+        <v>979.0278707680197</v>
       </c>
       <c r="Y8" t="n">
-        <v>2011.736756227071</v>
+        <v>588.888538792208</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.2886830373633</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>607.8356537562363</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>458.901244094985</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>458.901244094985</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>312.36668612187</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972666</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474384</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.56331694836</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.741376785633</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1204.741376785633</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>950.5040200574313</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>950.5040200574313</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>950.5040200574313</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="D10" t="n">
-        <v>193.4094100343004</v>
+        <v>347.3497871391163</v>
       </c>
       <c r="E10" t="n">
-        <v>193.4094100343004</v>
+        <v>199.4366935567232</v>
       </c>
       <c r="F10" t="n">
-        <v>193.4094100343004</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="G10" t="n">
-        <v>193.4094100343004</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809311</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809311</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>448.0938982401873</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>448.0938982401873</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.4094100343004</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773688</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F13" t="n">
-        <v>264.0500279773688</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,31 +5527,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1272.757518498399</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,19 +6223,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6460,10 +6460,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
@@ -6472,7 +6472,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D31" t="n">
-        <v>594.8179559048583</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>110.076923434726</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7025,16 +7025,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7089,10 +7089,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2190.770766644916</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.695539989114</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783227</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,19 +7192,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2318.136881002812</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,22 +7423,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7563,10 +7563,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7596,22 +7596,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1460.396302956689</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
         <v>1280.315625093766</v>
@@ -7627,43 +7627,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7678,10 +7678,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311994</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429802</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>139.9994244361424</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.02951788468646</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>38.89198472948078</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.482525529413209</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>68.29586847696697</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.9224211125171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>101.6825818796756</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>65.16817853567893</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.62386594322842</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>144.8013425629415</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>118.3918499711696</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>119.8635921600914</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.150513196503169</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>215.1260109543624</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312484</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253122</v>
+        <v>270592.3620253147</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231938</v>
+        <v>115410.0540231905</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742644</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854485</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881971</v>
+        <v>62913.63765882027</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197506</v>
+        <v>27875.25362197427</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263455</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26441,25 +26441,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687961</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936816</v>
+        <v>76435.73471936837</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208467.7191353402</v>
+        <v>-208467.7191353409</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.0289602214</v>
+        <v>164779.028960219</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632849</v>
+        <v>343599.422663288</v>
       </c>
       <c r="E6" t="n">
-        <v>-11749.10267629592</v>
+        <v>-12096.48193065344</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979688</v>
+        <v>589346.725643612</v>
       </c>
       <c r="G6" t="n">
-        <v>589694.1048979684</v>
+        <v>589346.7256436117</v>
       </c>
       <c r="H6" t="n">
-        <v>589694.1048979686</v>
+        <v>589346.725643612</v>
       </c>
       <c r="I6" t="n">
-        <v>589694.1048979688</v>
+        <v>589346.725643612</v>
       </c>
       <c r="J6" t="n">
-        <v>540629.1601694238</v>
+        <v>540281.7809150673</v>
       </c>
       <c r="K6" t="n">
-        <v>526780.4672391489</v>
+        <v>526433.0879847915</v>
       </c>
       <c r="L6" t="n">
-        <v>561818.8512759937</v>
+        <v>561471.4720216375</v>
       </c>
       <c r="M6" t="n">
-        <v>432547.7243463707</v>
+        <v>432200.345092014</v>
       </c>
       <c r="N6" t="n">
-        <v>589694.1048979689</v>
+        <v>589346.725643612</v>
       </c>
       <c r="O6" t="n">
-        <v>589694.1048979685</v>
+        <v>589346.7256436117</v>
       </c>
       <c r="P6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.7256436117</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950615</v>
+        <v>758.8996292950636</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.975703959471</v>
+        <v>431.9757039594734</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261639</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,16 +26819,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099649</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821568</v>
+        <v>210.4296883821588</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262335</v>
+        <v>94.81103524262051</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039889</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931533</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666899</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931533</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666897</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931511</v>
+        <v>244.4501167931533</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666899</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>228.8030079467915</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>214.2191222157216</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.07229145586405</v>
+        <v>63.60522581084393</v>
       </c>
     </row>
     <row r="4">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441932</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>251.279170481528</v>
       </c>
       <c r="G5" t="n">
-        <v>75.23036946311231</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760043</v>
+        <v>92.8578877276001</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372553</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>55.34430664940774</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>42.80350148734231</v>
+        <v>96.47037835246127</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>43.32085084937499</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843605</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>65.53368222699541</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>120.4518386448925</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589156</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166222</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>183.0094365099475</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>226.7285614325576</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>31.9568532069683</v>
+        <v>205.5435940233622</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>9.068535313726681</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>149.8943244218938</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-5.688177271642585e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-4.984739963240086e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.05085278108568</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429373</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428058</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.937316228671</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.0799144520279</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511776</v>
+        <v>481.447450251179</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968099</v>
+        <v>535.7030533968114</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610711</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191503</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860963</v>
+        <v>438.7164434860975</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634665</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098735</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.52130774899001</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868544</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030892</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403519</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062501</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.221291647594</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316638</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.4276051721899</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.6002979658096</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.5470671468677</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374464</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872498</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547503</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632163</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947729</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737888</v>
+        <v>6.579516597378898</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528237</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377988</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734531</v>
+        <v>41.15475366734542</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463556</v>
+        <v>96.75348224635589</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260805</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162536</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399144</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528494</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275353</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515003</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235546</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054727</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391207</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830816</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33654,10 +33654,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663277</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043726</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>434.6640573992324</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.891411701984</v>
+        <v>77.89141170198474</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070474</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811917</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695372</v>
+        <v>305.3568201695387</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.9582252644802</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974636</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.483447730828</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890171</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092691</v>
+        <v>27.38366498092734</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573048</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.8732253923157</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437901</v>
+        <v>271.4662640437913</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635344</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.781379993002</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729196</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872821</v>
+        <v>68.38629016872881</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554467</v>
+        <v>29.98243465554512</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501475</v>
+        <v>68.57507023501535</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230875</v>
+        <v>75.59399159230935</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761562</v>
+        <v>81.73343028761622</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569194</v>
+        <v>54.97578017569251</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235273</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>300.6896499849021</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37393,19 +37393,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>300.6896499849021</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3098910.29713933</v>
+        <v>3100670.827442116</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328603.389020027</v>
+        <v>8328603.389020026</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>158.9209832102733</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>172.018816440332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>31.15979419121934</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.0774699664604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.21594625443465</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>155.5968752601835</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425858</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168.3556677389314</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>102.3007738059932</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>14.56939904994686</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>46.17063318532924</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304022</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589123</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>79.7707400125251</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>121.3173682462355</v>
+        <v>214.6100436546171</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.27697994470972</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>139.5469377044875</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.085774025512567</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.421623586788822</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>16.09765778288659</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>86.24032515900413</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>27.34574348918484</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>61.16269384155317</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>71.39698738222857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005846</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005846</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005846</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005846</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262262</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433443</v>
+        <v>511.8624171433435</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433443</v>
+        <v>351.3361714764007</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433443</v>
+        <v>351.3361714764007</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433443</v>
+        <v>351.3361714764007</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433443</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433443</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.1060369005846</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.9546307030099</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>529.2080240617047</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>380.2736144004534</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>221.0361593949979</v>
       </c>
       <c r="F3" t="n">
         <v>74.50160142188287</v>
@@ -4406,55 +4406,55 @@
         <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652805</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652805</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487955</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y3" t="n">
-        <v>417.1699677230779</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.118726476541</v>
+        <v>781.1074137586279</v>
       </c>
       <c r="C5" t="n">
-        <v>948.1562095361292</v>
+        <v>412.1448968182161</v>
       </c>
       <c r="D5" t="n">
-        <v>589.8905109293787</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="E5" t="n">
-        <v>204.1022583311345</v>
+        <v>53.87919821146562</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226229</v>
+        <v>46.93369746226215</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675787</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675787</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675787</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017228</v>
+        <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746999</v>
+        <v>277.980716674698</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030796</v>
+        <v>521.2049416030768</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709229</v>
+        <v>823.5081935709189</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582758</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079247</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332767</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837894</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540663</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540663</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540663</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540663</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540663</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540663</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.718566540663</v>
+        <v>1557.846585798561</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.718566540663</v>
+        <v>1167.70725382275</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607.8141681877999</v>
+        <v>372.662059956052</v>
       </c>
       <c r="C6" t="n">
-        <v>433.3611389066729</v>
+        <v>198.209030674925</v>
       </c>
       <c r="D6" t="n">
-        <v>284.4267292454216</v>
+        <v>49.27462101367374</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898729</v>
+        <v>49.27462101367374</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675787</v>
+        <v>49.27462101367374</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675787</v>
+        <v>49.27462101367374</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675787</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675787</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787594</v>
+        <v>61.66788464787547</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806076</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171190002</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223535</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352526</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228324</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639515</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906556</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906556</v>
+        <v>1210.726552674808</v>
       </c>
       <c r="W6" t="n">
-        <v>1191.641304178355</v>
+        <v>956.4891959466067</v>
       </c>
       <c r="X6" t="n">
-        <v>983.7898039728218</v>
+        <v>748.6376957410739</v>
       </c>
       <c r="Y6" t="n">
-        <v>776.0295052078679</v>
+        <v>540.8773969761201</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.7424728605654</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="C7" t="n">
-        <v>111.7424728605654</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="D7" t="n">
-        <v>111.7424728605654</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="E7" t="n">
-        <v>111.7424728605654</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="F7" t="n">
-        <v>111.7424728605654</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306113</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306113</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306113</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675787</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574754</v>
+        <v>64.24066662574705</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584127</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.968037834799</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195391</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934747</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858038</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040955</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040955</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040955</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040955</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040955</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="V7" t="n">
-        <v>332.5350520040955</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="W7" t="n">
-        <v>332.5350520040955</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="X7" t="n">
-        <v>332.5350520040955</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="Y7" t="n">
-        <v>111.7424728605654</v>
+        <v>34.55805631675772</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>588.888538792208</v>
+        <v>1052.086081397652</v>
       </c>
       <c r="C8" t="n">
-        <v>588.888538792208</v>
+        <v>683.12356445724</v>
       </c>
       <c r="D8" t="n">
-        <v>588.888538792208</v>
+        <v>683.12356445724</v>
       </c>
       <c r="E8" t="n">
-        <v>588.888538792208</v>
+        <v>683.12356445724</v>
       </c>
       <c r="F8" t="n">
-        <v>581.9430380430045</v>
+        <v>272.1376596676325</v>
       </c>
       <c r="G8" t="n">
-        <v>165.9119927464118</v>
+        <v>260.1470184114438</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711883</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>1705.262284299214</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W8" t="n">
-        <v>1352.4936290291</v>
+        <v>1815.691171634543</v>
       </c>
       <c r="X8" t="n">
-        <v>979.0278707680197</v>
+        <v>1442.225413373463</v>
       </c>
       <c r="Y8" t="n">
-        <v>588.888538792208</v>
+        <v>1052.086081397652</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
         <v>1745.745249409541</v>
@@ -4928,7 +4928,7 @@
         <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="C10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="D10" t="n">
-        <v>347.3497871391163</v>
+        <v>356.5099238196483</v>
       </c>
       <c r="E10" t="n">
-        <v>199.4366935567232</v>
+        <v>208.5968302372551</v>
       </c>
       <c r="F10" t="n">
-        <v>52.54674605881283</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>52.54674605881283</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>52.54674605881283</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>52.54674605881283</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514521</v>
+        <v>497.4664265514538</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,49 +5260,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6445,67 +6445,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>696.7084350851671</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>546.5917956728314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>398.6787020904383</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>251.7887545925279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>251.7887545925279</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>110.076923434726</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1949.83911739012</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="35">
@@ -6931,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7168,43 +7168,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.9279362553159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2318.136881002812</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855556</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7642,40 +7642,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>139.9994244361424</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>65.16817853567893</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>258.8387309000593</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>31.77834493961092</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.8635921600914</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>215.1260109543624</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253147</v>
+        <v>270592.362025313</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231905</v>
+        <v>115410.0540231936</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882027</v>
+        <v>62913.6376588199</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197427</v>
+        <v>27875.25362197505</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263455</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26441,16 +26441,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936837</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208467.7191353409</v>
+        <v>-208467.7191353406</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.028960219</v>
+        <v>164779.0289602207</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.422663288</v>
+        <v>343599.4226632849</v>
       </c>
       <c r="E6" t="n">
-        <v>-12096.48193065344</v>
+        <v>-11783.84060173103</v>
       </c>
       <c r="F6" t="n">
-        <v>589346.725643612</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="G6" t="n">
-        <v>589346.7256436117</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="H6" t="n">
-        <v>589346.725643612</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="I6" t="n">
-        <v>589346.725643612</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="J6" t="n">
-        <v>540281.7809150673</v>
+        <v>540594.4222439886</v>
       </c>
       <c r="K6" t="n">
-        <v>526433.0879847915</v>
+        <v>526745.7293137131</v>
       </c>
       <c r="L6" t="n">
-        <v>561471.4720216375</v>
+        <v>561784.1133505579</v>
       </c>
       <c r="M6" t="n">
-        <v>432200.345092014</v>
+        <v>432512.9864209355</v>
       </c>
       <c r="N6" t="n">
-        <v>589346.725643612</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="O6" t="n">
-        <v>589346.7256436117</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="P6" t="n">
-        <v>589346.7256436117</v>
+        <v>589659.3669725329</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950636</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594734</v>
+        <v>431.9757039594715</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821588</v>
+        <v>210.4296883821575</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262051</v>
+        <v>94.81103524262312</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931533</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666899</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931533</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666897</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931533</v>
+        <v>244.4501167931516</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666899</v>
+        <v>110.1392527666928</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637379</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>54.52289784593344</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.2191222157216</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>141.5487047970964</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27481,7 +27481,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715735</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>63.60522581084393</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0308748441932</v>
+        <v>115.0308748441934</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>251.279170481528</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.8578877276001</v>
+        <v>92.85788772760034</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372553</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>201.3754329395376</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>55.34430664940774</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246127</v>
+        <v>81.90097930251444</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937499</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074768</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843605</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -27754,7 +27754,7 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>120.4518386448925</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27797,7 +27797,7 @@
         <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166222</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27830,10 +27830,10 @@
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>206.4736434787893</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>183.0094365099475</v>
+        <v>89.71676110156585</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>11.39188093250446</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27988,7 +27988,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9.06853531372488</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>9.068535313726681</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-5.688177271642585e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-4.984739963240086e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-9.189731873468358e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05085278108568</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429373</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428058</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.937316228671</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520279</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251179</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968114</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610711</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191503</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860975</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634665</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098735</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774899001</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920257</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868544</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030892</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403519</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062501</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.221291647594</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316638</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721899</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658096</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468677</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374464</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872498</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547503</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632163</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947729</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378898</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757166</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528237</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377988</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734542</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635589</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260805</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162536</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399144</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528494</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275353</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515003</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235546</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054727</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391207</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830816</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656371</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198474</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070474</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811917</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695387</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644802</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974636</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730828</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890171</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092734</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573048</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923157</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437913</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635344</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993002</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729196</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872881</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554512</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501535</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230935</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761622</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569251</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235273</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
